--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -597,7 +597,12 @@
           <t>A temporal interval during which a person is abstinent from a behaviour.</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr"/>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">test
+</t>
+        </is>
+      </c>
       <c r="F2" s="2" t="inlineStr"/>
       <c r="G2" s="2" t="inlineStr">
         <is>
@@ -621,11 +626,13 @@
       <c r="R2" s="2" t="inlineStr"/>
       <c r="S2" s="2" t="inlineStr"/>
       <c r="T2" s="2" t="inlineStr"/>
-      <c r="U2" s="2" t="inlineStr"/>
+      <c r="U2" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="V2" s="2" t="inlineStr"/>
       <c r="W2" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; HZ</t>
         </is>
       </c>
       <c r="X2" s="2" t="inlineStr">
@@ -681,7 +688,9 @@
       <c r="R3" s="2" t="inlineStr"/>
       <c r="S3" s="2" t="inlineStr"/>
       <c r="T3" s="2" t="inlineStr"/>
-      <c r="U3" s="2" t="inlineStr"/>
+      <c r="U3" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="V3" s="2" t="inlineStr"/>
       <c r="W3" s="2" t="inlineStr">
         <is>
@@ -741,7 +750,9 @@
       <c r="R4" s="2" t="inlineStr"/>
       <c r="S4" s="2" t="inlineStr"/>
       <c r="T4" s="2" t="inlineStr"/>
-      <c r="U4" s="2" t="inlineStr"/>
+      <c r="U4" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="V4" s="2" t="inlineStr"/>
       <c r="W4" s="2" t="inlineStr">
         <is>
@@ -801,7 +812,9 @@
       <c r="R5" s="2" t="inlineStr"/>
       <c r="S5" s="2" t="inlineStr"/>
       <c r="T5" s="2" t="inlineStr"/>
-      <c r="U5" s="2" t="inlineStr"/>
+      <c r="U5" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="V5" s="2" t="inlineStr"/>
       <c r="W5" s="2" t="inlineStr">
         <is>
@@ -1421,7 +1434,9 @@
       <c r="R15" s="2" t="inlineStr"/>
       <c r="S15" s="2" t="inlineStr"/>
       <c r="T15" s="2" t="inlineStr"/>
-      <c r="U15" s="2" t="inlineStr"/>
+      <c r="U15" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="V15" s="2" t="inlineStr"/>
       <c r="W15" s="2" t="inlineStr">
         <is>
@@ -1481,7 +1496,9 @@
       <c r="R16" s="2" t="inlineStr"/>
       <c r="S16" s="2" t="inlineStr"/>
       <c r="T16" s="2" t="inlineStr"/>
-      <c r="U16" s="2" t="inlineStr"/>
+      <c r="U16" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="V16" s="2" t="inlineStr"/>
       <c r="W16" s="2" t="inlineStr">
         <is>
@@ -1689,7 +1706,9 @@
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr">
         <is>

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -599,8 +599,7 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">test
-</t>
+          <t>test_1</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr"/>
@@ -626,8 +625,10 @@
       <c r="R2" s="2" t="inlineStr"/>
       <c r="S2" s="2" t="inlineStr"/>
       <c r="T2" s="2" t="inlineStr"/>
-      <c r="U2" s="2" t="n">
-        <v>0</v>
+      <c r="U2" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V2" s="2" t="inlineStr"/>
       <c r="W2" s="2" t="inlineStr">
@@ -688,8 +689,10 @@
       <c r="R3" s="2" t="inlineStr"/>
       <c r="S3" s="2" t="inlineStr"/>
       <c r="T3" s="2" t="inlineStr"/>
-      <c r="U3" s="2" t="n">
-        <v>0</v>
+      <c r="U3" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V3" s="2" t="inlineStr"/>
       <c r="W3" s="2" t="inlineStr">
@@ -750,8 +753,10 @@
       <c r="R4" s="2" t="inlineStr"/>
       <c r="S4" s="2" t="inlineStr"/>
       <c r="T4" s="2" t="inlineStr"/>
-      <c r="U4" s="2" t="n">
-        <v>0</v>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V4" s="2" t="inlineStr"/>
       <c r="W4" s="2" t="inlineStr">
@@ -812,8 +817,10 @@
       <c r="R5" s="2" t="inlineStr"/>
       <c r="S5" s="2" t="inlineStr"/>
       <c r="T5" s="2" t="inlineStr"/>
-      <c r="U5" s="2" t="n">
-        <v>0</v>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V5" s="2" t="inlineStr"/>
       <c r="W5" s="2" t="inlineStr">
@@ -1434,8 +1441,10 @@
       <c r="R15" s="2" t="inlineStr"/>
       <c r="S15" s="2" t="inlineStr"/>
       <c r="T15" s="2" t="inlineStr"/>
-      <c r="U15" s="2" t="n">
-        <v>0</v>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V15" s="2" t="inlineStr"/>
       <c r="W15" s="2" t="inlineStr">
@@ -1496,8 +1505,10 @@
       <c r="R16" s="2" t="inlineStr"/>
       <c r="S16" s="2" t="inlineStr"/>
       <c r="T16" s="2" t="inlineStr"/>
-      <c r="U16" s="2" t="n">
-        <v>0</v>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V16" s="2" t="inlineStr"/>
       <c r="W16" s="2" t="inlineStr">
@@ -1706,8 +1717,10 @@
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
-      <c r="U19" t="n">
-        <v>0</v>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr">
